--- a/input.xlsx
+++ b/input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,11 +452,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -465,11 +465,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -478,11 +478,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,7 +491,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -499,12 +499,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -512,25 +512,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>7.25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -538,29 +538,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -569,20 +569,20 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>9.25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -590,77 +590,77 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -668,20 +668,579 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12.58333333333333</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13.91666666666667</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>15</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>15</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>15.91666666666667</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16.58333333333333</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>18</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>18</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>18</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>18.58333333333333</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>19.91666666666667</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>20</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>12500</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20.58333333333333</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>25000</v>
@@ -463,32 +463,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>25000</v>
@@ -496,32 +496,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>25000</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -540,21 +540,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>25000</v>
@@ -562,43 +562,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>25000</v>
@@ -606,45 +606,617 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>25000</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>10.7</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>13</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>15</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>15</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>16</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>18</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>22</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
         <v>12500</v>
       </c>
     </row>
